--- a/data/octData.xlsx
+++ b/data/octData.xlsx
@@ -1,34 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Working/Optimization/code/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TNGP17-001\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE57B639-E464-9B4C-9E3C-7F69DCD46376}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC87FDF-C1BC-4EAC-8927-F883FC039901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="3" xr2:uid="{22382317-8DE9-4DD3-B839-9D514A121735}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{22382317-8DE9-4DD3-B839-9D514A121735}"/>
   </bookViews>
   <sheets>
-    <sheet name="DC1" sheetId="1" r:id="rId1"/>
-    <sheet name="DC2" sheetId="2" r:id="rId2"/>
-    <sheet name="DC3" sheetId="3" r:id="rId3"/>
-    <sheet name="DC4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
   <si>
     <t>gsbmymohqweb05</t>
   </si>
@@ -132,6 +137,12 @@
     <t>dae1eb0c-e934-44b9-b232-5474ff206706</t>
   </si>
   <si>
+    <t>dc1</t>
+  </si>
+  <si>
+    <t>dc2</t>
+  </si>
+  <si>
     <t>gsbmymohqinq01</t>
   </si>
   <si>
@@ -390,16 +401,22 @@
     <t>web10</t>
   </si>
   <si>
+    <t>redun with 1</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
     <t>ovsapp</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]d/mmm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -540,6 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,347 +872,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11768E31-6B0B-4071-9FC0-95133466FC4A}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="7">
         <v>43389</v>
       </c>
-      <c r="D1" s="7">
+      <c r="E1" s="14">
+        <v>43374</v>
+      </c>
+      <c r="F1" s="7">
         <v>43359</v>
       </c>
-      <c r="E1" s="7">
+      <c r="G1" s="7">
         <v>43328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.58099999999999996</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>1.214</v>
+      </c>
+      <c r="F2">
         <v>0.95</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.60499999999999998</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="F3">
         <v>0.128</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>1.306</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.66300000000000003</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F4">
         <v>2.6890000000000001</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.64100000000000001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F5">
         <v>0.44500000000000001</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F6">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.121</v>
+      </c>
+      <c r="F7">
         <v>0.127</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.34300000000000003</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F8">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F9">
         <v>1.4E-2</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.107</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F10">
         <v>1.9E-2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.222</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.315</v>
+      </c>
+      <c r="F11">
         <v>0.66200000000000003</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.50700000000000001</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="F12">
         <v>0.66300000000000003</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F14">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.125</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.749</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F15">
         <v>0.75700000000000001</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.38500000000000001</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F16">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F17">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>4.41</v>
       </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
       <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19">
+        <v>2.1389999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19">
         <v>260</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.315</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20">
         <v>3.8919999999999999</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>4.226</v>
+      </c>
+      <c r="F20">
         <v>4.1929999999999996</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>3.944</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <f>SUM(D2:D20)</f>
+        <v>13.833</v>
+      </c>
+      <c r="F21">
+        <f>SUM(F2:F20)</f>
+        <v>11.686999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1204,280 +1280,334 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E584E094-5DFE-476C-959C-5F0307CDF92E}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="7">
         <v>43389</v>
       </c>
-      <c r="D1" s="7">
+      <c r="E1" s="14">
+        <v>43374</v>
+      </c>
+      <c r="F1" s="7">
         <v>43359</v>
       </c>
-      <c r="E1" s="7">
+      <c r="G1" s="7">
         <v>43328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
         <v>3.3759999999999999</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="F2">
         <v>0.95</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F3">
         <v>0.128</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>0.65300000000000002</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.746</v>
+      </c>
+      <c r="F4">
         <v>2.6890000000000001</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1.109</v>
+      </c>
+      <c r="F5">
         <v>0.44500000000000001</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>42</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
         <v>1.0289999999999999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>46</v>
-      </c>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
         <v>0.60099999999999998</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G8">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
         <v>2.17</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>4.242</v>
+      </c>
+      <c r="F9">
         <v>5.1280000000000001</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>2.7090000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>50</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F10">
         <v>1.4E-2</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
         <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.9E-2</v>
       </c>
       <c r="E11">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12">
+      <c r="F11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="F12">
         <v>0.66200000000000003</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
         <v>4.6210000000000004</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>7.2480000000000002</v>
+      </c>
+      <c r="F13">
         <v>5.4669999999999996</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>5.4409999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14">
         <v>6.3E-2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
         <v>1.278</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F15">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16">
         <v>3.8610000000000002</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>3.7639999999999998</v>
+      </c>
+      <c r="F16">
         <v>3.899</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>3.911</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <f>SUM(D2:D16)</f>
+        <v>18.633000000000003</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F2:F16)</f>
+        <v>20.033000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1487,265 +1617,302 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB9D60B-E5A4-4FE0-8ECB-3718A5ABFD96}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="7">
+        <v>43389</v>
+      </c>
+      <c r="E1" s="7">
+        <v>43374</v>
+      </c>
+      <c r="F1" s="7">
+        <v>43359</v>
+      </c>
+      <c r="G1" s="7">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+      <c r="G2">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>5.2060000000000004</v>
+      </c>
+      <c r="E5">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="F5">
+        <v>4.8710000000000004</v>
+      </c>
+      <c r="G5">
+        <v>6.3730000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <v>7.4219999999999997</v>
+      </c>
+      <c r="E6">
+        <v>14.916</v>
+      </c>
+      <c r="F6">
+        <v>6.0880000000000001</v>
+      </c>
+      <c r="G6">
+        <v>8.3789999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1.3029999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="7">
-        <v>43389</v>
-      </c>
-      <c r="D1" s="7">
-        <v>43359</v>
-      </c>
-      <c r="E1" s="7">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.95</v>
-      </c>
-      <c r="E2">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D3">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D4">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="E4">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5">
-        <v>5.2060000000000004</v>
-      </c>
-      <c r="D5">
-        <v>4.8710000000000004</v>
-      </c>
-      <c r="E5">
-        <v>6.3730000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6">
-        <v>7.4219999999999997</v>
-      </c>
-      <c r="D6">
-        <v>6.0880000000000001</v>
-      </c>
-      <c r="E6">
-        <v>8.3789999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E7">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="D8">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="E8">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="D9">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="E9">
-        <v>1.3029999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="D11">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="D12">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13">
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F13">
         <v>1.6E-2</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>118</v>
-      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14">
         <v>1.55</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15">
         <v>3.3740000000000001</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="F15">
         <v>1.3640000000000001</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>1.6060000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <f>SUM(D2:D15)</f>
+        <v>19.538999999999998</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F2:F15)</f>
+        <v>15.047999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1755,299 +1922,341 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833E82D9-BBC8-4038-B221-0EB405BD5E8A}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="7">
+        <v>43389</v>
+      </c>
+      <c r="E1" s="7">
+        <v>43374</v>
+      </c>
+      <c r="F1" s="7">
+        <v>43359</v>
+      </c>
+      <c r="G1" s="7">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="E2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+      <c r="G2">
+        <v>4.032</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5">
+        <v>0.374</v>
+      </c>
+      <c r="E5">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F5">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="G5">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7">
+        <v>3.7639999999999998</v>
+      </c>
+      <c r="E7">
+        <v>7.8070000000000004</v>
+      </c>
+      <c r="F7">
+        <v>5.5339999999999998</v>
+      </c>
+      <c r="G7">
+        <v>5.2069999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>3.1829999999999998</v>
+      </c>
+      <c r="E8">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="F8">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="G8">
+        <v>3.722</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G9">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.158</v>
+      </c>
+      <c r="G11">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12">
+        <v>0.221</v>
+      </c>
+      <c r="E12">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13">
+        <v>0.628</v>
+      </c>
+      <c r="E13">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="F13">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G13">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F14">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G14">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E15">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="7">
-        <v>43389</v>
-      </c>
-      <c r="D1" s="7">
-        <v>43359</v>
-      </c>
-      <c r="E1" s="7">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2">
-        <v>3.8330000000000002</v>
-      </c>
-      <c r="D2">
-        <v>0.95</v>
-      </c>
-      <c r="E2">
-        <v>4.032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="D3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E3">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5">
-        <v>0.374</v>
-      </c>
-      <c r="D5">
-        <v>2.0880000000000001</v>
-      </c>
-      <c r="E5">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7">
-        <v>3.7639999999999998</v>
-      </c>
-      <c r="D7">
-        <v>5.5339999999999998</v>
-      </c>
-      <c r="E7">
-        <v>5.2069999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8">
-        <v>3.1829999999999998</v>
-      </c>
-      <c r="D8">
-        <v>3.3010000000000002</v>
-      </c>
-      <c r="E8">
-        <v>3.722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="D9">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="E9">
-        <v>0.41199999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="D10">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="E10">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.158</v>
-      </c>
-      <c r="E11">
-        <v>0.47099999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12">
-        <v>0.221</v>
-      </c>
-      <c r="D12">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.41399999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13">
-        <v>0.628</v>
-      </c>
-      <c r="D13">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="E13">
-        <v>0.60799999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="D14">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D15">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="E15">
-        <v>0.23300000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16">
         <v>0.248</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17">
         <v>2.3959999999999999</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>2.105</v>
+      </c>
+      <c r="F17">
         <v>1.429</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>2.2080000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <f>SUM(D2:D17)</f>
+        <v>16.681000000000001</v>
       </c>
     </row>
   </sheetData>
